--- a/BalloonFight/Resources/images/バルーンファイト_画像説明書.xlsx
+++ b/BalloonFight/Resources/images/バルーンファイト_画像説明書.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="176">
   <si>
     <t>画像作成進捗▶</t>
   </si>
@@ -286,6 +286,9 @@
   </si>
   <si>
     <t>▼アニメーション番号</t>
+  </si>
+  <si>
+    <t>※画像は1キャラ64px*64px</t>
   </si>
   <si>
     <t>動　作</t>
@@ -419,7 +422,7 @@
 　遜色ないように調整してください</t>
   </si>
   <si>
-    <t>上昇（風船2つ）</t>
+    <t>上昇1（風船2つ）</t>
   </si>
   <si>
     <t>17→18→19→18　※最初に戻ってループする</t>
@@ -434,7 +437,7 @@
 　遜色ないように調整してください</t>
   </si>
   <si>
-    <t>上昇（風船1つ）</t>
+    <t>上昇1（風船1つ）</t>
   </si>
   <si>
     <t>22→23→24→23　※最初に戻ってループする</t>
@@ -444,6 +447,40 @@
 ・十字キーの入力なし
 ・Bボタン押しっぱなしの時に再生し、ボタンを離すまで
 　右図アニメーションと上昇（Y移動）を行う
+・向きは元々向いていた方向で
+・画像を切り替えるフレームや加速度は、既存のゲームと
+　遜色ないように調整してください</t>
+  </si>
+  <si>
+    <t>上昇2（風船2つ）</t>
+  </si>
+  <si>
+    <t>17→18→19→21</t>
+  </si>
+  <si>
+    <t>・風船が2つの時
+・十字キーの入力なし
+・Aボタンを押した時に再生、右図アニメーションと
+　上昇（Y移動）する（Aボタンを押すたびにこの動作を繰り返す）
+・アニメーション後、AボタンやBボタンを押さない場合は
+　「滑空（風船2つ）」アニメーションを再生する
+・向きは元々向いていた方向で
+・画像を切り替えるフレームや加速度は、既存のゲームと
+　遜色ないように調整してください</t>
+  </si>
+  <si>
+    <t>上昇2（風船1つ）</t>
+  </si>
+  <si>
+    <t>22→23→24→26</t>
+  </si>
+  <si>
+    <t>・風船が1つの時
+・十字キーの入力なし
+・Aボタン押した時に再生、右図アニメーションと
+　上昇（Y移動）する（Aボタンを押すたびにこの動作を繰り返す）
+・アニメーション後、AボタンやBボタンを押さない場合は
+　「滑空（風船1つ）」アニメーションを再生する
 ・向きは元々向いていた方向で
 ・画像を切り替えるフレームや加速度は、既存のゲームと
 　遜色ないように調整してください</t>
@@ -583,6 +620,9 @@
     <t>▼ステージ2の素材配置</t>
   </si>
   <si>
+    <t>▼ステージ3の素材配置</t>
+  </si>
+  <si>
     <t>276*17</t>
   </si>
   <si>
@@ -621,7 +661,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy/m/d"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -638,6 +678,11 @@
       <color rgb="FF0000FF"/>
     </font>
     <font/>
+    <font>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -733,7 +778,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -779,6 +824,9 @@
     <xf borderId="2" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="2" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
@@ -822,7 +870,7 @@
     <xdr:ext cx="3028950" cy="1514475"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image6.png"/>
+        <xdr:cNvPr id="0" name="image11.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -850,7 +898,7 @@
     <xdr:ext cx="3028950" cy="1514475"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png"/>
+        <xdr:cNvPr id="0" name="image17.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -878,7 +926,7 @@
     <xdr:ext cx="3028950" cy="1514475"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image7.png"/>
+        <xdr:cNvPr id="0" name="image22.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -906,7 +954,7 @@
     <xdr:ext cx="3028950" cy="1209675"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image30.png"/>
+        <xdr:cNvPr id="0" name="image8.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -939,7 +987,7 @@
     <xdr:ext cx="609600" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image11.gif" title="画像"/>
+        <xdr:cNvPr id="0" name="image12.gif" title="画像"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -967,7 +1015,7 @@
     <xdr:ext cx="609600" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image18.gif" title="画像"/>
+        <xdr:cNvPr id="0" name="image23.gif" title="画像"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -995,7 +1043,7 @@
     <xdr:ext cx="609600" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image8.gif" title="画像"/>
+        <xdr:cNvPr id="0" name="image2.gif" title="画像"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1051,7 +1099,7 @@
     <xdr:ext cx="609600" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image13.gif" title="画像"/>
+        <xdr:cNvPr id="0" name="image10.gif" title="画像"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1079,7 +1127,7 @@
     <xdr:ext cx="609600" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image16.gif" title="画像"/>
+        <xdr:cNvPr id="0" name="image15.gif" title="画像"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1107,7 +1155,7 @@
     <xdr:ext cx="609600" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image12.gif" title="画像"/>
+        <xdr:cNvPr id="0" name="image20.gif" title="画像"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1135,67 +1183,11 @@
     <xdr:ext cx="609600" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.gif" title="画像"/>
+        <xdr:cNvPr id="0" name="image13.gif" title="画像"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip cstate="print" r:embed="rId8"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1095375</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="609600" cy="609600"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image38.gif" title="画像"/>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId9"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1095375</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="609600" cy="609600"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image19.gif" title="画像"/>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId10"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1214,16 +1206,16 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>1095375</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="609600" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image14.gif" title="画像"/>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId11"/>
+        <xdr:cNvPr id="0" name="image18.gif" title="画像"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId9"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1242,44 +1234,72 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>1095375</xdr:colOff>
       <xdr:row>52</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="609600" cy="609600"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image5.gif" title="画像"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1095375</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="609600" cy="609600"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image1.gif" title="画像"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1095375</xdr:colOff>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="609600" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.gif" title="画像"/>
+        <xdr:cNvPr id="0" name="image9.gif" title="画像"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip cstate="print" r:embed="rId12"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="10106025" cy="5410200"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image21.png" title="画像"/>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId13"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1303,11 +1323,11 @@
     <xdr:ext cx="609600" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image10.gif" title="画像"/>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId14"/>
+        <xdr:cNvPr id="0" name="image7.gif" title="画像"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId13"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1331,11 +1351,11 @@
     <xdr:ext cx="609600" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image15.gif" title="画像"/>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId15"/>
+        <xdr:cNvPr id="0" name="image16.gif" title="画像"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId14"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1359,7 +1379,35 @@
     <xdr:ext cx="609600" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image28.gif" title="画像"/>
+        <xdr:cNvPr id="0" name="image14.gif" title="画像"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="10182225" cy="5238750"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image3.png" title="画像"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1379,19 +1427,75 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1095375</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="609600" cy="609600"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image35.gif" title="画像"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1095375</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>533400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="609600" cy="609600"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image39.gif" title="画像"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="3819525" cy="1905000"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image5.png" title="画像"/>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId17"/>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4076700" cy="2038350"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image36.png"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId19"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1420,7 +1524,7 @@
     <xdr:ext cx="304800" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image9.png" title="画像"/>
+        <xdr:cNvPr id="0" name="image6.png" title="画像"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1448,7 +1552,7 @@
     <xdr:ext cx="571500" cy="638175"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image17.png" title="画像"/>
+        <xdr:cNvPr id="0" name="image19.png" title="画像"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1476,7 +1580,7 @@
     <xdr:ext cx="333375" cy="333375"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image40.png" title="画像"/>
+        <xdr:cNvPr id="0" name="image21.png" title="画像"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1504,7 +1608,7 @@
     <xdr:ext cx="304800" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image9.png" title="画像"/>
+        <xdr:cNvPr id="0" name="image6.png" title="画像"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1532,7 +1636,7 @@
     <xdr:ext cx="571500" cy="638175"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image17.png" title="画像"/>
+        <xdr:cNvPr id="0" name="image19.png" title="画像"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1560,7 +1664,7 @@
     <xdr:ext cx="333375" cy="333375"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image40.png" title="画像"/>
+        <xdr:cNvPr id="0" name="image21.png" title="画像"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1588,7 +1692,7 @@
     <xdr:ext cx="304800" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image9.png" title="画像"/>
+        <xdr:cNvPr id="0" name="image6.png" title="画像"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1616,7 +1720,7 @@
     <xdr:ext cx="571500" cy="638175"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image17.png" title="画像"/>
+        <xdr:cNvPr id="0" name="image19.png" title="画像"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1644,7 +1748,7 @@
     <xdr:ext cx="333375" cy="333375"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image40.png" title="画像"/>
+        <xdr:cNvPr id="0" name="image21.png" title="画像"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1672,7 +1776,7 @@
     <xdr:ext cx="3028950" cy="504825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image22.png"/>
+        <xdr:cNvPr id="0" name="image38.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1700,7 +1804,7 @@
     <xdr:ext cx="3028950" cy="180975"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image24.png"/>
+        <xdr:cNvPr id="0" name="image42.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1728,7 +1832,7 @@
     <xdr:ext cx="3028950" cy="419100"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image35.png"/>
+        <xdr:cNvPr id="0" name="image28.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1756,7 +1860,7 @@
     <xdr:ext cx="3028950" cy="666750"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image34.png"/>
+        <xdr:cNvPr id="0" name="image29.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1784,7 +1888,7 @@
     <xdr:ext cx="1743075" cy="1952625"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image26.png"/>
+        <xdr:cNvPr id="0" name="image24.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1812,7 +1916,7 @@
     <xdr:ext cx="3028950" cy="1295400"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image37.png"/>
+        <xdr:cNvPr id="0" name="image30.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1840,7 +1944,7 @@
     <xdr:ext cx="3028950" cy="876300"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image20.png"/>
+        <xdr:cNvPr id="0" name="image26.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1868,7 +1972,7 @@
     <xdr:ext cx="838200" cy="1952625"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image25.png"/>
+        <xdr:cNvPr id="0" name="image34.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1896,7 +2000,7 @@
     <xdr:ext cx="609600" cy="1952625"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image23.png"/>
+        <xdr:cNvPr id="0" name="image32.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1924,7 +2028,7 @@
     <xdr:ext cx="3028950" cy="1209675"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image44.png"/>
+        <xdr:cNvPr id="0" name="image25.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1952,7 +2056,7 @@
     <xdr:ext cx="3028950" cy="1209675"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image31.png"/>
+        <xdr:cNvPr id="0" name="image27.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1980,7 +2084,7 @@
     <xdr:ext cx="3028950" cy="1209675"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image45.png"/>
+        <xdr:cNvPr id="0" name="image49.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2008,7 +2112,7 @@
     <xdr:ext cx="3028950" cy="1209675"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image27.png"/>
+        <xdr:cNvPr id="0" name="image31.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2036,7 +2140,7 @@
     <xdr:ext cx="3028950" cy="333375"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image36.png"/>
+        <xdr:cNvPr id="0" name="image55.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2064,7 +2168,7 @@
     <xdr:ext cx="3028950" cy="504825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image43.png"/>
+        <xdr:cNvPr id="0" name="image33.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2092,7 +2196,7 @@
     <xdr:ext cx="3028950" cy="504825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image29.png"/>
+        <xdr:cNvPr id="0" name="image40.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2120,7 +2224,7 @@
     <xdr:ext cx="3028950" cy="1009650"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image58.png"/>
+        <xdr:cNvPr id="0" name="image41.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2153,7 +2257,7 @@
     <xdr:ext cx="6276975" cy="4743450"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image33.png" title="画像"/>
+        <xdr:cNvPr id="0" name="image45.png" title="画像"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2181,7 +2285,7 @@
     <xdr:ext cx="6315075" cy="4781550"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image32.png" title="画像"/>
+        <xdr:cNvPr id="0" name="image44.png" title="画像"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2209,7 +2313,7 @@
     <xdr:ext cx="2438400" cy="1828800"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image54.png"/>
+        <xdr:cNvPr id="0" name="image46.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2237,7 +2341,7 @@
     <xdr:ext cx="2438400" cy="1828800"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image42.png"/>
+        <xdr:cNvPr id="0" name="image47.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2265,7 +2369,7 @@
     <xdr:ext cx="2438400" cy="1828800"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image55.png"/>
+        <xdr:cNvPr id="0" name="image51.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2293,7 +2397,7 @@
     <xdr:ext cx="2438400" cy="1828800"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image57.png"/>
+        <xdr:cNvPr id="0" name="image60.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2321,7 +2425,7 @@
     <xdr:ext cx="2438400" cy="1828800"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image49.png"/>
+        <xdr:cNvPr id="0" name="image58.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2354,7 +2458,7 @@
     <xdr:ext cx="2628900" cy="161925"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image46.png" title="画像"/>
+        <xdr:cNvPr id="0" name="image37.png" title="画像"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2382,7 +2486,7 @@
     <xdr:ext cx="2733675" cy="1066800"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image41.png" title="画像"/>
+        <xdr:cNvPr id="0" name="image59.png" title="画像"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2410,7 +2514,7 @@
     <xdr:ext cx="3028950" cy="809625"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image39.png"/>
+        <xdr:cNvPr id="0" name="image50.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2438,7 +2542,7 @@
     <xdr:ext cx="3028950" cy="1514475"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image53.png"/>
+        <xdr:cNvPr id="0" name="image57.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2471,7 +2575,7 @@
     <xdr:ext cx="3028950" cy="228600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image56.png"/>
+        <xdr:cNvPr id="0" name="image53.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2499,7 +2603,7 @@
     <xdr:ext cx="3028950" cy="1304925"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image50.png"/>
+        <xdr:cNvPr id="0" name="image52.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2527,7 +2631,7 @@
     <xdr:ext cx="3028950" cy="295275"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image52.png"/>
+        <xdr:cNvPr id="0" name="image48.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2555,7 +2659,7 @@
     <xdr:ext cx="3028950" cy="352425"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image51.png"/>
+        <xdr:cNvPr id="0" name="image43.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2583,7 +2687,7 @@
     <xdr:ext cx="1495425" cy="1590675"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image47.png"/>
+        <xdr:cNvPr id="0" name="image54.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2611,7 +2715,7 @@
     <xdr:ext cx="1323975" cy="1590675"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image48.png"/>
+        <xdr:cNvPr id="0" name="image56.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3472,200 +3576,227 @@
       <c r="B7" s="1" t="s">
         <v>87</v>
       </c>
+      <c r="C7" s="17" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="38" ht="35.25" customHeight="1">
-      <c r="B38" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="C38" s="17" t="s">
+      <c r="B38" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="D38" s="17" t="s">
+      <c r="C38" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="E38" s="17" t="s">
+      <c r="D38" s="18" t="s">
         <v>91</v>
+      </c>
+      <c r="E38" s="18" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="39" ht="82.5" customHeight="1">
       <c r="B39" s="13" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="E39" s="18"/>
+        <v>95</v>
+      </c>
+      <c r="E39" s="19"/>
     </row>
     <row r="40" ht="82.5" customHeight="1">
       <c r="B40" s="13" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="E40" s="18"/>
+        <v>98</v>
+      </c>
+      <c r="E40" s="19"/>
     </row>
     <row r="41" ht="82.5" customHeight="1">
       <c r="B41" s="13" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="E41" s="18"/>
+        <v>101</v>
+      </c>
+      <c r="E41" s="19"/>
     </row>
     <row r="42" ht="82.5" customHeight="1">
       <c r="B42" s="13" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="E42" s="18"/>
+        <v>104</v>
+      </c>
+      <c r="E42" s="19"/>
     </row>
     <row r="43" ht="82.5" customHeight="1">
       <c r="B43" s="13" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="E43" s="18"/>
+        <v>107</v>
+      </c>
+      <c r="E43" s="19"/>
     </row>
     <row r="44" ht="114.0" customHeight="1">
       <c r="B44" s="13" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="E44" s="18"/>
+        <v>110</v>
+      </c>
+      <c r="E44" s="19"/>
     </row>
     <row r="45" ht="114.0" customHeight="1">
       <c r="B45" s="13" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D45" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="E45" s="19"/>
+        <v>113</v>
+      </c>
+      <c r="E45" s="20"/>
     </row>
     <row r="46" ht="114.0" customHeight="1">
       <c r="B46" s="13" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D46" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="E46" s="18"/>
+        <v>116</v>
+      </c>
+      <c r="E46" s="19"/>
     </row>
     <row r="47" ht="82.5" customHeight="1">
       <c r="B47" s="13" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D47" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="E47" s="18"/>
+        <v>119</v>
+      </c>
+      <c r="E47" s="19"/>
     </row>
     <row r="48" ht="93.0" customHeight="1">
       <c r="B48" s="13" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D48" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="E48" s="18"/>
+        <v>122</v>
+      </c>
+      <c r="E48" s="19"/>
     </row>
     <row r="49" ht="93.0" customHeight="1">
       <c r="B49" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D49" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="E49" s="18"/>
-    </row>
-    <row r="50" ht="82.5" customHeight="1">
+        <v>125</v>
+      </c>
+      <c r="E49" s="19"/>
+    </row>
+    <row r="50" ht="128.25" customHeight="1">
       <c r="B50" s="13" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D50" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="E50" s="18"/>
-    </row>
-    <row r="51" ht="82.5" customHeight="1">
+        <v>128</v>
+      </c>
+      <c r="E50" s="19"/>
+    </row>
+    <row r="51" ht="142.5" customHeight="1">
       <c r="B51" s="13" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D51" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="E51" s="18"/>
+        <v>131</v>
+      </c>
+      <c r="E51" s="19"/>
     </row>
     <row r="52" ht="82.5" customHeight="1">
       <c r="B52" s="13" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="E52" s="18"/>
+        <v>134</v>
+      </c>
+      <c r="E52" s="19"/>
     </row>
     <row r="53" ht="82.5" customHeight="1">
       <c r="B53" s="13" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D53" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="E53" s="18"/>
+        <v>137</v>
+      </c>
+      <c r="E53" s="19"/>
+    </row>
+    <row r="54" ht="82.5" customHeight="1">
+      <c r="B54" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="D54" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="E54" s="19"/>
+    </row>
+    <row r="55" ht="82.5" customHeight="1">
+      <c r="B55" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="D55" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="E55" s="19"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -3721,16 +3852,16 @@
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="G4" s="6" t="b">
         <v>1</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" ht="153.75" customHeight="1">
@@ -3741,7 +3872,7 @@
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="F5" s="13" t="s">
         <v>21</v>
@@ -3750,7 +3881,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" ht="153.75" customHeight="1">
@@ -3761,7 +3892,7 @@
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="13" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="F6" s="13" t="s">
         <v>21</v>
@@ -3770,7 +3901,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" ht="153.75" customHeight="1">
@@ -3781,7 +3912,7 @@
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="13" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="F7" s="13" t="s">
         <v>21</v>
@@ -3790,7 +3921,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" ht="153.75" customHeight="1">
@@ -3799,9 +3930,9 @@
       <c r="C8" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="19"/>
+      <c r="D8" s="20"/>
       <c r="E8" s="13" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="F8" s="13" t="s">
         <v>21</v>
@@ -3810,7 +3941,7 @@
         <v>1</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" ht="153.75" customHeight="1">
@@ -3821,7 +3952,7 @@
       </c>
       <c r="D9" s="13"/>
       <c r="E9" s="13" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="F9" s="13" t="s">
         <v>21</v>
@@ -3830,7 +3961,7 @@
         <v>1</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" ht="153.75" customHeight="1">
@@ -3841,7 +3972,7 @@
       </c>
       <c r="D10" s="13"/>
       <c r="E10" s="13" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="F10" s="13" t="s">
         <v>21</v>
@@ -3850,7 +3981,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" ht="153.75" customHeight="1">
@@ -3859,9 +3990,9 @@
       <c r="C11" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="19"/>
+      <c r="D11" s="20"/>
       <c r="E11" s="13" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="F11" s="13" t="s">
         <v>21</v>
@@ -3870,7 +4001,7 @@
         <v>1</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" ht="153.75" customHeight="1">
@@ -3879,9 +4010,9 @@
       <c r="C12" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="19"/>
+      <c r="D12" s="20"/>
       <c r="E12" s="13" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="F12" s="13" t="s">
         <v>21</v>
@@ -3890,7 +4021,7 @@
         <v>1</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13" ht="153.75" customHeight="1">
@@ -3901,7 +4032,7 @@
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="13" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="F13" s="13" t="s">
         <v>30</v>
@@ -3910,7 +4041,7 @@
         <v>1</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" ht="153.75" customHeight="1">
@@ -3921,7 +4052,7 @@
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="F14" s="13" t="s">
         <v>32</v>
@@ -3930,7 +4061,7 @@
         <v>1</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15" ht="153.75" customHeight="1">
@@ -3941,7 +4072,7 @@
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="13" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="F15" s="13" t="s">
         <v>30</v>
@@ -3950,7 +4081,7 @@
         <v>1</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
     </row>
     <row r="16" ht="153.75" customHeight="1">
@@ -3961,7 +4092,7 @@
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="13" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="F16" s="13" t="s">
         <v>30</v>
@@ -3970,7 +4101,7 @@
         <v>1</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17" ht="153.75" customHeight="1">
@@ -3981,7 +4112,7 @@
       </c>
       <c r="D17" s="13"/>
       <c r="E17" s="13" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="F17" s="13" t="s">
         <v>36</v>
@@ -3990,7 +4121,7 @@
         <v>1</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18" ht="153.75" customHeight="1">
@@ -4001,7 +4132,7 @@
       </c>
       <c r="D18" s="13"/>
       <c r="E18" s="13" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="F18" s="13" t="s">
         <v>38</v>
@@ -4019,7 +4150,7 @@
       </c>
       <c r="D19" s="13"/>
       <c r="E19" s="13" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="F19" s="13" t="s">
         <v>40</v>
@@ -4037,10 +4168,10 @@
       </c>
       <c r="D20" s="13"/>
       <c r="E20" s="13" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="G20" s="6" t="b">
         <v>1</v>
@@ -4105,9 +4236,9 @@
       <c r="C4" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="19"/>
+      <c r="D4" s="20"/>
       <c r="E4" s="13" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="F4" s="13" t="s">
         <v>45</v>
@@ -4116,7 +4247,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" ht="144.0" customHeight="1">
@@ -4125,9 +4256,9 @@
       <c r="C5" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="19"/>
+      <c r="D5" s="20"/>
       <c r="E5" s="13" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="F5" s="13" t="s">
         <v>47</v>
@@ -4136,7 +4267,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" ht="144.0" customHeight="1">
@@ -4145,9 +4276,9 @@
       <c r="C6" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="19"/>
+      <c r="D6" s="20"/>
       <c r="E6" s="13" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="F6" s="13" t="s">
         <v>49</v>
@@ -4156,7 +4287,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" ht="144.0" customHeight="1">
@@ -4165,9 +4296,9 @@
       <c r="C7" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="19"/>
+      <c r="D7" s="20"/>
       <c r="E7" s="13" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="F7" s="13" t="s">
         <v>51</v>
@@ -4176,7 +4307,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" ht="144.0" customHeight="1">
@@ -4185,9 +4316,9 @@
       <c r="C8" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="D8" s="19"/>
+      <c r="D8" s="20"/>
       <c r="E8" s="13" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="F8" s="13" t="s">
         <v>53</v>
@@ -4196,7 +4327,7 @@
         <v>1</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9">
@@ -4204,17 +4335,17 @@
     </row>
     <row r="10">
       <c r="C10" s="1" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
     </row>
     <row r="37">
       <c r="C37" s="1" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
     </row>
     <row r="64">
-      <c r="B64" s="1" t="s">
-        <v>48</v>
+      <c r="C64" s="1" t="s">
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -4272,9 +4403,9 @@
       <c r="C4" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="D4" s="20"/>
+      <c r="D4" s="21"/>
       <c r="E4" s="13" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="F4" s="13" t="s">
         <v>56</v>
@@ -4282,7 +4413,7 @@
       <c r="G4" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="H4" s="18"/>
+      <c r="H4" s="19"/>
     </row>
     <row r="5" ht="158.25" customHeight="1">
       <c r="A5" s="4"/>
@@ -4292,7 +4423,7 @@
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="13" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="F5" s="13" t="s">
         <v>58</v>
@@ -4300,7 +4431,7 @@
       <c r="G5" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="H5" s="18"/>
+      <c r="H5" s="19"/>
     </row>
     <row r="6" ht="158.25" customHeight="1">
       <c r="A6" s="4"/>
@@ -4308,9 +4439,9 @@
       <c r="C6" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="D6" s="21"/>
+      <c r="D6" s="22"/>
       <c r="E6" s="13" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="F6" s="13" t="s">
         <v>60</v>
@@ -4318,7 +4449,7 @@
       <c r="G6" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="H6" s="18"/>
+      <c r="H6" s="19"/>
     </row>
     <row r="7" ht="158.25" customHeight="1">
       <c r="A7" s="4"/>
@@ -4328,7 +4459,7 @@
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="13" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="F7" s="13" t="s">
         <v>62</v>
@@ -4336,7 +4467,7 @@
       <c r="G7" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="H7" s="18"/>
+      <c r="H7" s="19"/>
     </row>
     <row r="8">
       <c r="A8" s="10"/>
@@ -4396,9 +4527,9 @@
       <c r="C4" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="D4" s="22"/>
+      <c r="D4" s="23"/>
       <c r="E4" s="13" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="F4" s="13" t="s">
         <v>65</v>
@@ -4406,7 +4537,7 @@
       <c r="G4" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="H4" s="18"/>
+      <c r="H4" s="19"/>
     </row>
     <row r="5" ht="125.25" customHeight="1">
       <c r="A5" s="4"/>
@@ -4414,9 +4545,9 @@
       <c r="C5" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="D5" s="21"/>
+      <c r="D5" s="22"/>
       <c r="E5" s="13" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="F5" s="13" t="s">
         <v>67</v>
@@ -4424,7 +4555,7 @@
       <c r="G5" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="H5" s="18"/>
+      <c r="H5" s="19"/>
     </row>
     <row r="6" ht="125.25" customHeight="1">
       <c r="A6" s="4"/>
@@ -4432,9 +4563,9 @@
       <c r="C6" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="D6" s="21"/>
+      <c r="D6" s="22"/>
       <c r="E6" s="13" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="F6" s="13" t="s">
         <v>69</v>
@@ -4442,7 +4573,7 @@
       <c r="G6" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="H6" s="18"/>
+      <c r="H6" s="19"/>
     </row>
     <row r="7" ht="125.25" customHeight="1">
       <c r="A7" s="4"/>
@@ -4450,9 +4581,9 @@
       <c r="C7" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="D7" s="22"/>
+      <c r="D7" s="23"/>
       <c r="E7" s="13" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="F7" s="13" t="s">
         <v>71</v>
@@ -4460,7 +4591,7 @@
       <c r="G7" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="H7" s="18"/>
+      <c r="H7" s="19"/>
     </row>
     <row r="8" ht="125.25" customHeight="1">
       <c r="A8" s="4"/>
@@ -4468,9 +4599,9 @@
       <c r="C8" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="D8" s="23"/>
+      <c r="D8" s="24"/>
       <c r="E8" s="13" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="F8" s="13" t="s">
         <v>73</v>
@@ -4478,7 +4609,7 @@
       <c r="G8" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="H8" s="18"/>
+      <c r="H8" s="19"/>
     </row>
     <row r="9" ht="125.25" customHeight="1">
       <c r="A9" s="4"/>
@@ -4486,9 +4617,9 @@
       <c r="C9" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="D9" s="19"/>
+      <c r="D9" s="20"/>
       <c r="E9" s="13" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="F9" s="13" t="s">
         <v>75</v>
@@ -4496,7 +4627,7 @@
       <c r="G9" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="H9" s="18"/>
+      <c r="H9" s="19"/>
     </row>
     <row r="10">
       <c r="A10" s="10"/>
